--- a/data/trans_dic/P64D1_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P64D1_R-Dificultad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.3114428619286176</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.4781043492484901</v>
+        <v>0.4781043492484902</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3930707000675764</v>
+        <v>0.3930707000675765</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2304453997930292</v>
+        <v>0.2350105281721439</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4041479859023791</v>
+        <v>0.4092339344772494</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3444473132587526</v>
+        <v>0.3371435675790876</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3979647029564593</v>
+        <v>0.4019358413328794</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5482043839519815</v>
+        <v>0.5500179550053723</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4563808135724813</v>
+        <v>0.4533592322354746</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.4082158497522597</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3240126106037363</v>
+        <v>0.3240126106037364</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2230612490937929</v>
+        <v>0.2201341427959789</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3630845665338873</v>
+        <v>0.3645334219138661</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2916780131078722</v>
+        <v>0.2892007629671384</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3161230876242295</v>
+        <v>0.3111690502025324</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4549752196513111</v>
+        <v>0.4578935925183275</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3587201967049639</v>
+        <v>0.3573732703584503</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1929734856946581</v>
+        <v>0.1904233502834418</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3153625855692107</v>
+        <v>0.3157770021338524</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2577373768666189</v>
+        <v>0.2570000260950527</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2661349970413798</v>
+        <v>0.2657571552401432</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3921651547051359</v>
+        <v>0.389403578343089</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3117462862416222</v>
+        <v>0.3114446145963332</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1869334239362985</v>
+        <v>0.1869029125898493</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2974825718321549</v>
+        <v>0.2998916943660798</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2459016645262314</v>
+        <v>0.2452426840375602</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2658366537306843</v>
+        <v>0.2618879815335131</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3737807367477244</v>
+        <v>0.3746348570525823</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2994843521536111</v>
+        <v>0.297695434788063</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2248883409127134</v>
+        <v>0.2214911830737235</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3521126671704622</v>
+        <v>0.3517625330010449</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2868177114719413</v>
+        <v>0.2870506503658892</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2659475820139308</v>
+        <v>0.2660211594542488</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3979345991759682</v>
+        <v>0.3997021709559099</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3189782747438767</v>
+        <v>0.318265253212577</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>40943</v>
+        <v>41754</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>68929</v>
+        <v>69796</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>119944</v>
+        <v>117401</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>70706</v>
+        <v>71412</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>93498</v>
+        <v>93807</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>158922</v>
+        <v>157870</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>113848</v>
+        <v>112354</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>130745</v>
+        <v>131266</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>253900</v>
+        <v>251744</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>161345</v>
+        <v>158817</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>163834</v>
+        <v>164885</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>312259</v>
+        <v>311087</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>120026</v>
+        <v>118440</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>154099</v>
+        <v>154302</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>286249</v>
+        <v>285430</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>165531</v>
+        <v>165296</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>191628</v>
+        <v>190279</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>346233</v>
+        <v>345898</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>110388</v>
+        <v>110370</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>137287</v>
+        <v>138399</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>258693</v>
+        <v>258000</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>156983</v>
+        <v>154651</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>172498</v>
+        <v>172892</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>315063</v>
+        <v>313181</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>427414</v>
+        <v>420958</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>521403</v>
+        <v>520885</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>969830</v>
+        <v>970618</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>505450</v>
+        <v>505589</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>589256</v>
+        <v>591873</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1078576</v>
+        <v>1076165</v>
       </c>
     </row>
     <row r="24">
